--- a/medicine/Sexualité et sexologie/Discussion_érotique/Discussion_érotique.xlsx
+++ b/medicine/Sexualité et sexologie/Discussion_érotique/Discussion_érotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Discussion_%C3%A9rotique</t>
+          <t>Discussion_érotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une discussion érotique est une forme de communication verbale employée comme excitant sexuel pendant les préliminaires ou le rapport sexuel proprement dit. Ils font partie des vocalisations copulatoires.
 L'expression a de nombreux synonymes comme « parler coquins », « expressions grivoises, paillardes », « mots osés, crus», etc.
@@ -488,8 +500,8 @@
 Ils peuvent être chuchotés à l'oreille, au téléphone ou par SMS.
 Quand l'intimité corporelle est impossible, ça peut être un aspect important du téléphone rose ou du cybersexe.
 Les mots cochons sont par nature sexuels et n'ont rien à voir avec les « confidences sur l'oreiller », pratiquées généralement après le rapport.
-Les éducateurs sexuels conseillent d'en parler au préalable et de convenir d'un mot d'arrêt pour éviter les malentendus et rendre le rapport sans risque[1].
-Un sondage réalisé en Allemagne montrait qu'alors que 36 % des sondés avaient des difficultés à exprimer leurs désirs sexuels, 44 % disaient des mots coquins[2].
+Les éducateurs sexuels conseillent d'en parler au préalable et de convenir d'un mot d'arrêt pour éviter les malentendus et rendre le rapport sans risque.
+Un sondage réalisé en Allemagne montrait qu'alors que 36 % des sondés avaient des difficultés à exprimer leurs désirs sexuels, 44 % disaient des mots coquins.
 </t>
         </is>
       </c>
